--- a/files2/student.xlsx
+++ b/files2/student.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e162cd1e562697c1/桌面/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_0469A746EEF3A219AA3A0243437CC25F5CFBD264" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2EAF9447-C973-4B85-B7E8-CBAFBD10BD3D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21731" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="teacher模板" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>学号</t>
   </si>
@@ -43,21 +37,416 @@
     <t>参与毕设编号</t>
   </si>
   <si>
-    <t>11821380124</t>
+    <t>老邓头1</t>
   </si>
   <si>
     <t>$2a$10$njUukwP3kVHaoqwlH0yYCOavTKdtnyGi6woAGLt03y0zKQ6SI0OVC</t>
   </si>
   <si>
-    <t>小超超</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2502053207@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头2</t>
+  </si>
+  <si>
+    <t>2502053208@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头3</t>
+  </si>
+  <si>
+    <t>2502053209@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头4</t>
+  </si>
+  <si>
+    <t>2502053210@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头5</t>
+  </si>
+  <si>
+    <t>2502053211@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头6</t>
+  </si>
+  <si>
+    <t>2502053212@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头7</t>
+  </si>
+  <si>
+    <t>2502053213@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头8</t>
+  </si>
+  <si>
+    <t>2502053214@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头9</t>
+  </si>
+  <si>
+    <t>2502053215@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头10</t>
+  </si>
+  <si>
+    <t>2502053216@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头11</t>
+  </si>
+  <si>
+    <t>2502053217@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头12</t>
+  </si>
+  <si>
+    <t>2502053218@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头13</t>
+  </si>
+  <si>
+    <t>2502053219@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头14</t>
+  </si>
+  <si>
+    <t>2502053220@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头15</t>
+  </si>
+  <si>
+    <t>2502053221@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头16</t>
+  </si>
+  <si>
+    <t>2502053222@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头17</t>
+  </si>
+  <si>
+    <t>2502053223@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头18</t>
+  </si>
+  <si>
+    <t>2502053224@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头19</t>
+  </si>
+  <si>
+    <t>2502053225@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头20</t>
+  </si>
+  <si>
+    <t>2502053226@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头21</t>
+  </si>
+  <si>
+    <t>2502053227@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头22</t>
+  </si>
+  <si>
+    <t>2502053228@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头23</t>
+  </si>
+  <si>
+    <t>2502053229@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头24</t>
+  </si>
+  <si>
+    <t>2502053230@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头25</t>
+  </si>
+  <si>
+    <t>2502053231@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头26</t>
+  </si>
+  <si>
+    <t>2502053232@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头27</t>
+  </si>
+  <si>
+    <t>2502053233@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头28</t>
+  </si>
+  <si>
+    <t>2502053234@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头29</t>
+  </si>
+  <si>
+    <t>2502053235@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头30</t>
+  </si>
+  <si>
+    <t>2502053236@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头31</t>
+  </si>
+  <si>
+    <t>2502053237@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头32</t>
+  </si>
+  <si>
+    <t>2502053238@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头33</t>
+  </si>
+  <si>
+    <t>2502053239@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头34</t>
+  </si>
+  <si>
+    <t>2502053240@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头35</t>
+  </si>
+  <si>
+    <t>2502053241@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头36</t>
+  </si>
+  <si>
+    <t>2502053242@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头37</t>
+  </si>
+  <si>
+    <t>2502053243@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头38</t>
+  </si>
+  <si>
+    <t>2502053244@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头39</t>
+  </si>
+  <si>
+    <t>2502053245@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头40</t>
+  </si>
+  <si>
+    <t>2502053246@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头41</t>
+  </si>
+  <si>
+    <t>2502053247@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头42</t>
+  </si>
+  <si>
+    <t>2502053248@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头43</t>
+  </si>
+  <si>
+    <t>2502053249@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头44</t>
+  </si>
+  <si>
+    <t>2502053250@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头45</t>
+  </si>
+  <si>
+    <t>2502053251@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头46</t>
+  </si>
+  <si>
+    <t>2502053252@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头47</t>
+  </si>
+  <si>
+    <t>2502053253@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头48</t>
+  </si>
+  <si>
+    <t>2502053254@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头49</t>
+  </si>
+  <si>
+    <t>2502053255@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头50</t>
+  </si>
+  <si>
+    <t>2502053256@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头51</t>
+  </si>
+  <si>
+    <t>2502053257@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头52</t>
+  </si>
+  <si>
+    <t>2502053258@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头53</t>
+  </si>
+  <si>
+    <t>2502053259@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头54</t>
+  </si>
+  <si>
+    <t>2502053260@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头55</t>
+  </si>
+  <si>
+    <t>2502053261@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头56</t>
+  </si>
+  <si>
+    <t>2502053262@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头57</t>
+  </si>
+  <si>
+    <t>2502053263@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头58</t>
+  </si>
+  <si>
+    <t>2502053264@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头59</t>
+  </si>
+  <si>
+    <t>2502053265@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头60</t>
+  </si>
+  <si>
+    <t>2502053266@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头61</t>
+  </si>
+  <si>
+    <t>2502053267@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头62</t>
+  </si>
+  <si>
+    <t>2502053268@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头63</t>
+  </si>
+  <si>
+    <t>2502053269@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头64</t>
+  </si>
+  <si>
+    <t>2502053270@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头65</t>
+  </si>
+  <si>
+    <t>2502053271@qq.com</t>
+  </si>
+  <si>
+    <t>老邓头66</t>
+  </si>
+  <si>
+    <t>2502053272@qq.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -72,13 +461,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,8 +625,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,31 +835,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -397,27 +1406,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="52.21875" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="60.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="61.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="34.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="62.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="32.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="60.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="1" ht="34.8" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,16 +1451,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>11921380124</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1182122121</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -457,8 +1474,1571 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>11921380125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1182122122</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>11921380126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1182122123</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>11921380127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1182122124</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>11921380128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1182122125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11921380129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1182122126</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11921380130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1182122127</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11921380131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1182122128</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11921380132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1182122129</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11921380133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1182122130</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11921380134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>1182122131</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11921380135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1182122132</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11921380136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1182122133</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>11921380137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1182122134</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>11921380138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>1182122135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>11921380139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1182122136</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>11921380140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1182122137</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>11921380141</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>1182122138</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>11921380142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1182122139</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>11921380143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>1182122140</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>11921380144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1182122141</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>11921380145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>1182122142</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>11921380146</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>1182122143</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>11921380147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1182122144</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>11921380148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>1182122145</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>11921380149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1182122146</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>11921380150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1182122147</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>11921380151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1182122148</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>11921380152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1182122149</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>11921380153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1182122150</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>11921380154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1182122151</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>11921380155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1182122152</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>11921380156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>1182122153</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>11921380157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>1182122154</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>11921380158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>1182122155</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>11921380159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1182122156</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>11921380160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>1182122157</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>11921380161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1182122158</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>11921380162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>1182122159</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>11921380163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>1182122160</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>11921380164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>1182122161</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>11921380165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>1182122162</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>11921380166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>1182122163</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>11921380167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>1182122164</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>11921380168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>1182122165</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>11921380169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1182122166</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>11921380170</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>1182122167</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>11921380171</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>1182122168</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>11921380172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>1182122169</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>11921380173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>1182122170</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>11921380174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>1182122171</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>11921380175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>1182122172</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>11921380176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>1182122173</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>11921380177</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>1182122174</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>11921380178</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>1182122175</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>11921380179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>1182122176</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>11921380180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>1182122177</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>11921380181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>1182122178</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>11921380182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>1182122179</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>11921380183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>1182122180</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>11921380184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>1182122181</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>11921380185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>1182122182</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>11921380186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>1182122183</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>11921380187</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>1182122184</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>11921380188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>1182122185</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>11921380189</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>1182122186</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="2502053207@qq.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="2502053208@qq.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="2502053209@qq.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="2502053210@qq.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="2502053211@qq.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="2502053212@qq.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="2502053213@qq.com"/>
+    <hyperlink ref="E9" r:id="rId1" display="2502053214@qq.com"/>
+    <hyperlink ref="E10" r:id="rId1" display="2502053215@qq.com"/>
+    <hyperlink ref="E11" r:id="rId1" display="2502053216@qq.com"/>
+    <hyperlink ref="E12" r:id="rId1" display="2502053217@qq.com"/>
+    <hyperlink ref="E13" r:id="rId1" display="2502053218@qq.com"/>
+    <hyperlink ref="E14" r:id="rId1" display="2502053219@qq.com"/>
+    <hyperlink ref="E15" r:id="rId1" display="2502053220@qq.com"/>
+    <hyperlink ref="E16" r:id="rId1" display="2502053221@qq.com"/>
+    <hyperlink ref="E17" r:id="rId1" display="2502053222@qq.com"/>
+    <hyperlink ref="E18" r:id="rId1" display="2502053223@qq.com"/>
+    <hyperlink ref="E19" r:id="rId1" display="2502053224@qq.com"/>
+    <hyperlink ref="E20" r:id="rId1" display="2502053225@qq.com"/>
+    <hyperlink ref="E21" r:id="rId1" display="2502053226@qq.com"/>
+    <hyperlink ref="E22" r:id="rId1" display="2502053227@qq.com"/>
+    <hyperlink ref="E23" r:id="rId1" display="2502053228@qq.com"/>
+    <hyperlink ref="E24" r:id="rId1" display="2502053229@qq.com"/>
+    <hyperlink ref="E25" r:id="rId1" display="2502053230@qq.com"/>
+    <hyperlink ref="E26" r:id="rId1" display="2502053231@qq.com"/>
+    <hyperlink ref="E27" r:id="rId1" display="2502053232@qq.com"/>
+    <hyperlink ref="E28" r:id="rId1" display="2502053233@qq.com"/>
+    <hyperlink ref="E29" r:id="rId1" display="2502053234@qq.com"/>
+    <hyperlink ref="E30" r:id="rId1" display="2502053235@qq.com"/>
+    <hyperlink ref="E31" r:id="rId1" display="2502053236@qq.com"/>
+    <hyperlink ref="E32" r:id="rId1" display="2502053237@qq.com"/>
+    <hyperlink ref="E33" r:id="rId1" display="2502053238@qq.com"/>
+    <hyperlink ref="E34" r:id="rId1" display="2502053239@qq.com"/>
+    <hyperlink ref="E35" r:id="rId1" display="2502053240@qq.com"/>
+    <hyperlink ref="E36" r:id="rId1" display="2502053241@qq.com"/>
+    <hyperlink ref="E37" r:id="rId1" display="2502053242@qq.com"/>
+    <hyperlink ref="E38" r:id="rId1" display="2502053243@qq.com"/>
+    <hyperlink ref="E39" r:id="rId1" display="2502053244@qq.com"/>
+    <hyperlink ref="E40" r:id="rId1" display="2502053245@qq.com"/>
+    <hyperlink ref="E41" r:id="rId1" display="2502053246@qq.com"/>
+    <hyperlink ref="E42" r:id="rId1" display="2502053247@qq.com"/>
+    <hyperlink ref="E43" r:id="rId1" display="2502053248@qq.com"/>
+    <hyperlink ref="E44" r:id="rId1" display="2502053249@qq.com"/>
+    <hyperlink ref="E45" r:id="rId1" display="2502053250@qq.com"/>
+    <hyperlink ref="E46" r:id="rId1" display="2502053251@qq.com"/>
+    <hyperlink ref="E47" r:id="rId1" display="2502053252@qq.com"/>
+    <hyperlink ref="E48" r:id="rId1" display="2502053253@qq.com"/>
+    <hyperlink ref="E49" r:id="rId1" display="2502053254@qq.com"/>
+    <hyperlink ref="E50" r:id="rId1" display="2502053255@qq.com"/>
+    <hyperlink ref="E51" r:id="rId1" display="2502053256@qq.com"/>
+    <hyperlink ref="E52" r:id="rId1" display="2502053257@qq.com"/>
+    <hyperlink ref="E53" r:id="rId1" display="2502053258@qq.com"/>
+    <hyperlink ref="E54" r:id="rId1" display="2502053259@qq.com"/>
+    <hyperlink ref="E55" r:id="rId1" display="2502053260@qq.com"/>
+    <hyperlink ref="E56" r:id="rId1" display="2502053261@qq.com"/>
+    <hyperlink ref="E57" r:id="rId1" display="2502053262@qq.com"/>
+    <hyperlink ref="E58" r:id="rId1" display="2502053263@qq.com"/>
+    <hyperlink ref="E59" r:id="rId1" display="2502053264@qq.com"/>
+    <hyperlink ref="E60" r:id="rId1" display="2502053265@qq.com"/>
+    <hyperlink ref="E61" r:id="rId1" display="2502053266@qq.com"/>
+    <hyperlink ref="E62" r:id="rId1" display="2502053267@qq.com"/>
+    <hyperlink ref="E63" r:id="rId1" display="2502053268@qq.com"/>
+    <hyperlink ref="E64" r:id="rId1" display="2502053269@qq.com"/>
+    <hyperlink ref="E65" r:id="rId1" display="2502053270@qq.com"/>
+    <hyperlink ref="E66" r:id="rId1" display="2502053271@qq.com"/>
+    <hyperlink ref="E67" r:id="rId1" display="2502053272@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>